--- a/系统/罚息问题.xlsx
+++ b/系统/罚息问题.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\一部\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="7248"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>应收日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EGIC-HZL-TJGDHY01150824-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EGIC-HZL-RQ05150209-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EGIC-HZL-XS05151123-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EGIC-HZL-JMJT05140125-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +103,6 @@
   </si>
   <si>
     <t>EGIC-HZ-TJLG962016232-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGIC-HZL-TJGDHY01150824-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGIC-HZL-XS05151123-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,21 +449,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -484,376 +489,334 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>42610</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">TODAY()</f>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D3">
         <f ca="1">C3-B3</f>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2">
         <v>60747653.329999998</v>
       </c>
       <c r="H3" s="4">
         <f ca="1">D3*E3*G3</f>
-        <v>2369158.4798699999</v>
+        <v>1518691.3332500001</v>
       </c>
       <c r="I3">
         <v>577102.71</v>
       </c>
       <c r="J3" s="4">
         <f ca="1">H3-I3</f>
-        <v>1792055.76987</v>
+        <v>941588.62325000018</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>42673</v>
+        <v>42581</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C11" ca="1" si="0">TODAY()</f>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D11" ca="1" si="1">C4-B4</f>
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2">
         <v>2949782.99</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H11" ca="1" si="2">D4*E4*G4</f>
-        <v>22123.372425000001</v>
+        <v>116516.42810500001</v>
       </c>
       <c r="I4" s="2">
         <v>28022.94</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J11" ca="1" si="3">H4-I4</f>
-        <v>-5899.5675749999973</v>
+        <v>88493.488105000011</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>42616</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
         <v>27565979.199999999</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>992375.25120000006</v>
+        <v>606451.54239999992</v>
       </c>
       <c r="I5" s="2">
         <v>261876.8</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>730498.45120000001</v>
+        <v>344574.74239999993</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>42620</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
         <v>41392361.109999999</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1407340.27774</v>
+        <v>827847.22219999996</v>
       </c>
       <c r="I6" s="2">
         <v>393227.43</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1014112.8477400001</v>
+        <v>434619.79219999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>42671</v>
+        <v>42629</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>3.1958330000000001E-4</v>
+        <v>2.1770000000000001E-3</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>9407442.9499999993</v>
+        <v>26959375</v>
       </c>
       <c r="H7" s="4">
         <f ca="1">G7*((1+E7)^D7)</f>
-        <v>9458683.678129483</v>
+        <v>28839464.668442801</v>
       </c>
       <c r="I7" s="2">
         <v>1137241.08</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>8321442.5981294829</v>
+        <v>27702223.588442802</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>42671</v>
+        <v>42631</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>3.1958330000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
-        <v>9407442.9499999993</v>
+        <v>28938678.920000002</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>51109.848262886488</v>
+        <v>419610.84434000007</v>
       </c>
       <c r="I8" s="2">
         <v>274917.45</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>-223807.60173711352</v>
+        <v>144693.39434000006</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>42631</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
         <v>28864471.829999998</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>822637.44715499994</v>
+        <v>418534.84153500001</v>
       </c>
       <c r="I9" s="2">
         <v>274212.47999999998</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>548424.96715499996</v>
+        <v>144322.36153500003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>42631</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>22872794.699999999</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>651874.64894999994</v>
+        <v>331655.52315000002</v>
       </c>
       <c r="I10" s="2">
         <v>217291.55</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>434583.09894999996</v>
+        <v>114363.97315000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>42633</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42688</v>
+        <v>42660</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2">
         <v>3708211.11</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4038241.8987900005</v>
+        <v>1982409.6594060003</v>
       </c>
       <c r="I11" s="2">
         <v>14091.2</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>4024150.6987900003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <f ca="1">C14-D14</f>
-        <v>42668</v>
-      </c>
-      <c r="C14" s="1">
-        <f ca="1">TODAY()</f>
-        <v>42688</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>6947260</v>
-      </c>
-      <c r="H14" s="4">
-        <f>G14*((1+E14)^D14)</f>
-        <v>7017063.5869416343</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1137241.08</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" ref="J14" si="4">H14-I14</f>
-        <v>5879822.5069416342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H15" s="3">
-        <f>H14-G14</f>
-        <v>69803.586941634305</v>
+        <v>1968318.4594060003</v>
       </c>
     </row>
   </sheetData>
